--- a/informe/imgs/ejemplosEj2.xlsx
+++ b/informe/imgs/ejemplosEj2.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="16740" tabRatio="141"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>1)</t>
   </si>
@@ -34,47 +38,38 @@
   <si>
     <t>Curso nº3</t>
   </si>
+  <si>
+    <t>Curso nº4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="13"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,25 +78,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DC2300"/>
-        <bgColor rgb="00993300"/>
+        <fgColor rgb="FFDC2300"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007DA647"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="FF7DA647"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF950E"/>
-        <bgColor rgb="00FF6600"/>
+        <fgColor rgb="FFFF950E"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -109,58 +116,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -219,67 +207,386 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100">
-      <selection activeCell="C24" activeCellId="0" pane="topLeft" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="15" min="5" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.5098039215686"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="C2" s="1" t="n">
+    <row r="1" spans="2:13" ht="15" customHeight="1"/>
+    <row r="2" spans="2:13" ht="15" customHeight="1">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="1">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="1">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="2:13" ht="15" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -295,7 +602,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="2:13" ht="15" customHeight="1">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -308,7 +615,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16" outlineLevel="0" r="5">
+    <row r="5" spans="2:13" ht="16" customHeight="1">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -321,44 +628,46 @@
       <c r="L5" s="6"/>
       <c r="M5" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="56.7" outlineLevel="0" r="7"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="C8" s="1" t="n">
+    <row r="6" spans="2:13" ht="15" customHeight="1">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:13" ht="56.75" customHeight="1"/>
+    <row r="8" spans="2:13" ht="15" customHeight="1">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="1">
         <v>7</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="1">
         <v>8</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="1">
         <v>9</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="2:13" ht="15" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -367,114 +676,125 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="2:13" ht="15" customHeight="1">
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="56.7" outlineLevel="0" r="13"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="C15" s="1" t="n">
+    <row r="12" spans="2:13" ht="15" customHeight="1">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:13" ht="56.75" customHeight="1"/>
+    <row r="14" spans="2:13" ht="15" customHeight="1"/>
+    <row r="15" spans="2:13" ht="15" customHeight="1">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>6</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="1">
         <v>7</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="1">
         <v>8</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="1">
         <v>9</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="2:13" ht="15" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="3:11" ht="15" customHeight="1">
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="3:11" ht="15" customHeight="1">
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="19" spans="3:11" ht="15" customHeight="1"/>
+    <row r="20" spans="3:11" ht="15" customHeight="1"/>
+    <row r="21" spans="3:11" ht="15" customHeight="1"/>
+    <row r="22" spans="3:11" ht="15" customHeight="1"/>
+    <row r="23" spans="3:11" ht="15" customHeight="1"/>
+    <row r="24" spans="3:11" ht="15" customHeight="1"/>
+    <row r="25" spans="3:11" ht="15" customHeight="1">
       <c r="C25" s="7"/>
       <c r="D25" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="3:11" ht="15" customHeight="1">
       <c r="D26" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="3:11" ht="15" customHeight="1">
       <c r="C27" s="8"/>
       <c r="D27" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="3:11" ht="15" customHeight="1">
       <c r="D28" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="3:11" ht="15" customHeight="1">
       <c r="C29" s="9"/>
       <c r="D29" s="10" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.0395833333333333" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="123" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="3.9583333333333297E-2" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/informe/imgs/ejemplosEj2.xlsx
+++ b/informe/imgs/ejemplosEj2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="16740" tabRatio="141"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25540" windowHeight="14080" tabRatio="141"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Curso nº1</t>
   </si>
@@ -46,17 +37,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,7 +52,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +79,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -119,13 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -138,7 +112,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -542,255 +515,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M31"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" customHeight="1"/>
-    <row r="2" spans="2:13" ht="15" customHeight="1">
-      <c r="C2" s="1">
+    <row r="1" spans="1:14" ht="15" customHeight="1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="J2" s="1">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="L2" s="1">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="M2" s="1">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="2:13" ht="16" customHeight="1">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="2:13" ht="56.75" customHeight="1"/>
-    <row r="8" spans="2:13" ht="15" customHeight="1">
-      <c r="C8" s="1">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="16" customHeight="1">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1"/>
+    <row r="7" spans="1:14" ht="56.75" customHeight="1">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="1">
+      <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="K8" s="1">
+      <c r="I7" s="1">
         <v>8</v>
       </c>
-      <c r="L8" s="1">
+      <c r="J7" s="1">
         <v>9</v>
       </c>
-      <c r="M8" s="1">
+      <c r="K7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1">
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="2:13" ht="56.75" customHeight="1"/>
-    <row r="14" spans="2:13" ht="15" customHeight="1"/>
-    <row r="15" spans="2:13" ht="15" customHeight="1">
-      <c r="C15" s="1">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1"/>
+    <row r="13" spans="1:14" ht="56.75" customHeight="1"/>
+    <row r="14" spans="1:14" ht="20" customHeight="1"/>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="B15" s="6"/>
+      <c r="C15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
+      <c r="C16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" customHeight="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1">
+      <c r="C18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
+    </row>
+    <row r="20" spans="2:14" ht="15" customHeight="1"/>
+    <row r="21" spans="2:14" ht="15" customHeight="1">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>6</v>
-      </c>
-      <c r="J15" s="1">
-        <v>7</v>
-      </c>
-      <c r="K15" s="1">
-        <v>8</v>
-      </c>
-      <c r="L15" s="1">
-        <v>9</v>
-      </c>
-      <c r="M15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1">
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="3:11" ht="15" customHeight="1">
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="3:11" ht="15" customHeight="1">
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="3:11" ht="15" customHeight="1"/>
-    <row r="20" spans="3:11" ht="15" customHeight="1"/>
-    <row r="21" spans="3:11" ht="15" customHeight="1"/>
-    <row r="22" spans="3:11" ht="15" customHeight="1"/>
-    <row r="23" spans="3:11" ht="15" customHeight="1"/>
-    <row r="24" spans="3:11" ht="15" customHeight="1"/>
-    <row r="25" spans="3:11" ht="15" customHeight="1">
-      <c r="C25" s="7"/>
-      <c r="D25" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="15" customHeight="1">
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="3:11" ht="15" customHeight="1">
-      <c r="C27" s="8"/>
-      <c r="D27" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" ht="15" customHeight="1">
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="3:11" ht="15" customHeight="1">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11">
-      <c r="C31" s="12"/>
-      <c r="D31" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1"/>
+    <row r="23" spans="2:14" ht="15" customHeight="1"/>
+    <row r="24" spans="2:14" ht="15" customHeight="1"/>
+    <row r="25" spans="2:14" ht="15" customHeight="1"/>
+    <row r="26" spans="2:14" ht="15" customHeight="1"/>
+    <row r="27" spans="2:14" ht="15" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="3.9583333333333297E-2" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="66" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
